--- a/fuentes/contenidos/grado10/guion14/escaleta_CN_10_14_CO.xlsx
+++ b/fuentes/contenidos/grado10/guion14/escaleta_CN_10_14_CO.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LyzMarcela\Documents\GitHub\CienciasNaturales\fuentes\contenidos\grado10\guion14\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
@@ -841,7 +846,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -914,6 +919,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -970,7 +981,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1041,16 +1052,34 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1092,24 +1121,17 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1135,7 +1157,7 @@
       <sheetName val="DATOS"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
@@ -1185,7 +1207,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1220,7 +1242,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1431,9 +1453,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V43" sqref="V43"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P1" sqref="P1:P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1462,94 +1484,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="J1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="K1" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="50" t="s">
+      <c r="M1" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="50"/>
-      <c r="O1" s="38" t="s">
+      <c r="N1" s="56"/>
+      <c r="O1" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="38" t="s">
+      <c r="P1" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="53" t="s">
+      <c r="Q1" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="57" t="s">
+      <c r="R1" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="53" t="s">
+      <c r="S1" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="55" t="s">
+      <c r="T1" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="53" t="s">
+      <c r="U1" s="38" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="45"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="51"/>
       <c r="M2" s="19" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="54"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="39"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -1884,60 +1906,60 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:21" s="63" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="21" t="s">
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60" t="s">
         <v>227</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="61">
         <v>5</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="22" t="s">
+      <c r="J10" s="60" t="s">
         <v>184</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L10" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="M10" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="N10" s="7"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23" t="s">
+      <c r="N10" s="62"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="24">
+      <c r="Q10" s="60">
         <v>6</v>
       </c>
-      <c r="R10" s="25" t="s">
+      <c r="R10" s="60" t="s">
         <v>185</v>
       </c>
-      <c r="S10" s="24" t="s">
+      <c r="S10" s="60" t="s">
         <v>186</v>
       </c>
-      <c r="T10" s="26" t="s">
+      <c r="T10" s="60" t="s">
         <v>187</v>
       </c>
-      <c r="U10" s="24" t="s">
+      <c r="U10" s="60" t="s">
         <v>188</v>
       </c>
     </row>
@@ -2467,62 +2489,62 @@
         <v>160</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="1:21" s="63" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="F23" s="23"/>
-      <c r="G23" s="21" t="s">
+      <c r="F23" s="60"/>
+      <c r="G23" s="60" t="s">
         <v>231</v>
       </c>
-      <c r="H23" s="17">
+      <c r="H23" s="61">
         <v>11</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I23" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="22" t="s">
+      <c r="J23" s="60" t="s">
         <v>232</v>
       </c>
-      <c r="K23" s="6" t="s">
+      <c r="K23" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="5" t="s">
+      <c r="L23" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7" t="s">
+      <c r="M23" s="62"/>
+      <c r="N23" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23" t="s">
+      <c r="O23" s="60"/>
+      <c r="P23" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="Q23" s="24">
+      <c r="Q23" s="60">
         <v>6</v>
       </c>
-      <c r="R23" s="25" t="s">
+      <c r="R23" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="S23" s="24" t="s">
+      <c r="S23" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="T23" s="26" t="s">
+      <c r="T23" s="60" t="s">
         <v>202</v>
       </c>
-      <c r="U23" s="24" t="s">
+      <c r="U23" s="60" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2758,62 +2780,62 @@
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+    <row r="28" spans="1:21" s="63" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="D28" s="31" t="s">
+      <c r="D28" s="60" t="s">
         <v>233</v>
       </c>
-      <c r="E28" s="20" t="s">
+      <c r="E28" s="60" t="s">
         <v>219</v>
       </c>
-      <c r="F28" s="23"/>
-      <c r="G28" s="21" t="s">
+      <c r="F28" s="60"/>
+      <c r="G28" s="60" t="s">
         <v>235</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H28" s="61">
         <v>16</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I28" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="22" t="s">
+      <c r="J28" s="60" t="s">
         <v>213</v>
       </c>
-      <c r="K28" s="6" t="s">
+      <c r="K28" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="L28" s="5" t="s">
+      <c r="L28" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7" t="s">
+      <c r="M28" s="62"/>
+      <c r="N28" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23" t="s">
+      <c r="O28" s="60"/>
+      <c r="P28" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="Q28" s="24">
+      <c r="Q28" s="60">
         <v>6</v>
       </c>
-      <c r="R28" s="25" t="s">
+      <c r="R28" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="S28" s="24" t="s">
+      <c r="S28" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="T28" s="26" t="s">
+      <c r="T28" s="60" t="s">
         <v>206</v>
       </c>
-      <c r="U28" s="24" t="s">
+      <c r="U28" s="60" t="s">
         <v>160</v>
       </c>
     </row>
@@ -3058,62 +3080,62 @@
         <v>160</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+    <row r="34" spans="1:21" s="63" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="D34" s="31" t="s">
+      <c r="D34" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="E34" s="20" t="s">
+      <c r="E34" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="F34" s="23"/>
-      <c r="G34" s="21" t="s">
+      <c r="F34" s="60"/>
+      <c r="G34" s="60" t="s">
         <v>211</v>
       </c>
-      <c r="H34" s="17">
+      <c r="H34" s="61">
         <v>20</v>
       </c>
-      <c r="I34" s="4" t="s">
+      <c r="I34" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="22" t="s">
+      <c r="J34" s="60" t="s">
         <v>217</v>
       </c>
-      <c r="K34" s="6" t="s">
+      <c r="K34" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="L34" s="5" t="s">
+      <c r="L34" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7" t="s">
+      <c r="M34" s="62"/>
+      <c r="N34" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23" t="s">
+      <c r="O34" s="60"/>
+      <c r="P34" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="Q34" s="24">
+      <c r="Q34" s="60">
         <v>6</v>
       </c>
-      <c r="R34" s="25" t="s">
+      <c r="R34" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="S34" s="24" t="s">
+      <c r="S34" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="T34" s="26" t="s">
+      <c r="T34" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="U34" s="24" t="s">
+      <c r="U34" s="60" t="s">
         <v>160</v>
       </c>
     </row>
@@ -4982,12 +5004,6 @@
     <row r="298" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5002,6 +5018,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado10/guion14/escaleta_CN_10_14_CO.xlsx
+++ b/fuentes/contenidos/grado10/guion14/escaleta_CN_10_14_CO.xlsx
@@ -1052,34 +1052,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1121,17 +1114,24 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1453,9 +1453,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U298"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P1" sqref="P1:P2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1484,94 +1484,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="54" t="s">
+      <c r="J1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="52" t="s">
+      <c r="K1" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="50" t="s">
+      <c r="L1" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="56" t="s">
+      <c r="M1" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="56"/>
-      <c r="O1" s="36" t="s">
+      <c r="N1" s="55"/>
+      <c r="O1" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="36" t="s">
+      <c r="P1" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="38" t="s">
+      <c r="Q1" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="42" t="s">
+      <c r="R1" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="38" t="s">
+      <c r="S1" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="40" t="s">
+      <c r="T1" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="38" t="s">
+      <c r="U1" s="58" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="49"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="51"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="50"/>
       <c r="M2" s="19" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="39"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="59"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -1906,60 +1906,60 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="63" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="59" t="s">
+    <row r="10" spans="1:21" s="40" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="60" t="s">
+      <c r="D10" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60" t="s">
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="H10" s="61">
+      <c r="H10" s="38">
         <v>5</v>
       </c>
-      <c r="I10" s="62" t="s">
+      <c r="I10" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="60" t="s">
+      <c r="J10" s="37" t="s">
         <v>184</v>
       </c>
-      <c r="K10" s="62" t="s">
+      <c r="K10" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="62" t="s">
+      <c r="L10" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="62" t="s">
+      <c r="M10" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="N10" s="62"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="60" t="s">
+      <c r="N10" s="39"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="60">
+      <c r="Q10" s="37">
         <v>6</v>
       </c>
-      <c r="R10" s="60" t="s">
+      <c r="R10" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="S10" s="60" t="s">
+      <c r="S10" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="T10" s="60" t="s">
+      <c r="T10" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="U10" s="60" t="s">
+      <c r="U10" s="37" t="s">
         <v>188</v>
       </c>
     </row>
@@ -2430,121 +2430,121 @@
         <v>160</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:21" s="40" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="F22" s="23"/>
-      <c r="G22" s="21" t="s">
+      <c r="F22" s="37"/>
+      <c r="G22" s="37" t="s">
         <v>229</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H22" s="38">
         <v>10</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I22" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="22" t="s">
+      <c r="J22" s="37" t="s">
         <v>230</v>
       </c>
-      <c r="K22" s="6" t="s">
+      <c r="K22" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="5" t="s">
+      <c r="L22" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7" t="s">
+      <c r="M22" s="39"/>
+      <c r="N22" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23" t="s">
+      <c r="O22" s="37"/>
+      <c r="P22" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="Q22" s="24">
+      <c r="Q22" s="37">
         <v>6</v>
       </c>
-      <c r="R22" s="25" t="s">
+      <c r="R22" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="S22" s="24" t="s">
+      <c r="S22" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="T22" s="26" t="s">
+      <c r="T22" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="U22" s="24" t="s">
+      <c r="U22" s="37" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="63" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="59" t="s">
+    <row r="23" spans="1:21" s="40" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="59" t="s">
+      <c r="B23" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="59" t="s">
+      <c r="C23" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="60" t="s">
+      <c r="D23" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="E23" s="60" t="s">
+      <c r="E23" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60" t="s">
+      <c r="F23" s="37"/>
+      <c r="G23" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="H23" s="61">
+      <c r="H23" s="38">
         <v>11</v>
       </c>
-      <c r="I23" s="62" t="s">
+      <c r="I23" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="60" t="s">
+      <c r="J23" s="37" t="s">
         <v>232</v>
       </c>
-      <c r="K23" s="62" t="s">
+      <c r="K23" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="62" t="s">
+      <c r="L23" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="62"/>
-      <c r="N23" s="62" t="s">
+      <c r="M23" s="39"/>
+      <c r="N23" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="O23" s="60"/>
-      <c r="P23" s="60" t="s">
+      <c r="O23" s="37"/>
+      <c r="P23" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="Q23" s="60">
+      <c r="Q23" s="37">
         <v>6</v>
       </c>
-      <c r="R23" s="60" t="s">
+      <c r="R23" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="S23" s="60" t="s">
+      <c r="S23" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="T23" s="60" t="s">
+      <c r="T23" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="U23" s="60" t="s">
+      <c r="U23" s="37" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2721,121 +2721,121 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="1:21" s="40" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="31" t="s">
+      <c r="D27" s="37" t="s">
         <v>233</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="37" t="s">
         <v>219</v>
       </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="21" t="s">
+      <c r="F27" s="37"/>
+      <c r="G27" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="H27" s="17">
+      <c r="H27" s="38">
         <v>15</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I27" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="22" t="s">
+      <c r="J27" s="37" t="s">
         <v>221</v>
       </c>
-      <c r="K27" s="6" t="s">
+      <c r="K27" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="L27" s="5" t="s">
+      <c r="L27" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7" t="s">
+      <c r="M27" s="39"/>
+      <c r="N27" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23" t="s">
+      <c r="O27" s="37"/>
+      <c r="P27" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="24">
+      <c r="Q27" s="37">
         <v>6</v>
       </c>
-      <c r="R27" s="25" t="s">
+      <c r="R27" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="S27" s="24" t="s">
+      <c r="S27" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="T27" s="26" t="s">
+      <c r="T27" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="U27" s="24" t="s">
+      <c r="U27" s="37" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="63" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="59" t="s">
+    <row r="28" spans="1:21" s="40" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="59" t="s">
+      <c r="B28" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="C28" s="59" t="s">
+      <c r="C28" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="D28" s="60" t="s">
+      <c r="D28" s="37" t="s">
         <v>233</v>
       </c>
-      <c r="E28" s="60" t="s">
+      <c r="E28" s="37" t="s">
         <v>219</v>
       </c>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60" t="s">
+      <c r="F28" s="37"/>
+      <c r="G28" s="37" t="s">
         <v>235</v>
       </c>
-      <c r="H28" s="61">
+      <c r="H28" s="38">
         <v>16</v>
       </c>
-      <c r="I28" s="62" t="s">
+      <c r="I28" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="60" t="s">
+      <c r="J28" s="37" t="s">
         <v>213</v>
       </c>
-      <c r="K28" s="62" t="s">
+      <c r="K28" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="L28" s="62" t="s">
+      <c r="L28" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="M28" s="62"/>
-      <c r="N28" s="62" t="s">
+      <c r="M28" s="39"/>
+      <c r="N28" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="O28" s="60"/>
-      <c r="P28" s="60" t="s">
+      <c r="O28" s="37"/>
+      <c r="P28" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="Q28" s="60">
+      <c r="Q28" s="37">
         <v>6</v>
       </c>
-      <c r="R28" s="60" t="s">
+      <c r="R28" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="S28" s="60" t="s">
+      <c r="S28" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="T28" s="60" t="s">
+      <c r="T28" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="U28" s="60" t="s">
+      <c r="U28" s="37" t="s">
         <v>160</v>
       </c>
     </row>
@@ -3080,62 +3080,62 @@
         <v>160</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="63" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="59" t="s">
+    <row r="34" spans="1:21" s="40" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="59" t="s">
+      <c r="B34" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="C34" s="59" t="s">
+      <c r="C34" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="D34" s="60" t="s">
+      <c r="D34" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="E34" s="60" t="s">
+      <c r="E34" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="F34" s="60"/>
-      <c r="G34" s="60" t="s">
+      <c r="F34" s="37"/>
+      <c r="G34" s="37" t="s">
         <v>211</v>
       </c>
-      <c r="H34" s="61">
+      <c r="H34" s="38">
         <v>20</v>
       </c>
-      <c r="I34" s="62" t="s">
+      <c r="I34" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="60" t="s">
+      <c r="J34" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="K34" s="62" t="s">
+      <c r="K34" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="L34" s="62" t="s">
+      <c r="L34" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="M34" s="62"/>
-      <c r="N34" s="62" t="s">
+      <c r="M34" s="39"/>
+      <c r="N34" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="O34" s="60"/>
-      <c r="P34" s="60" t="s">
+      <c r="O34" s="37"/>
+      <c r="P34" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="Q34" s="60">
+      <c r="Q34" s="37">
         <v>6</v>
       </c>
-      <c r="R34" s="60" t="s">
+      <c r="R34" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="S34" s="60" t="s">
+      <c r="S34" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="T34" s="60" t="s">
+      <c r="T34" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="U34" s="60" t="s">
+      <c r="U34" s="37" t="s">
         <v>160</v>
       </c>
     </row>
@@ -3198,60 +3198,60 @@
         <v>160</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
+    <row r="36" spans="1:21" s="40" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="D36" s="31" t="s">
+      <c r="D36" s="37" t="s">
         <v>223</v>
       </c>
-      <c r="E36" s="20"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="21" t="s">
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37" t="s">
         <v>239</v>
       </c>
-      <c r="H36" s="17">
+      <c r="H36" s="38">
         <v>22</v>
       </c>
-      <c r="I36" s="4" t="s">
+      <c r="I36" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="J36" s="22" t="s">
+      <c r="J36" s="37" t="s">
         <v>222</v>
       </c>
-      <c r="K36" s="6" t="s">
+      <c r="K36" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="L36" s="5" t="s">
+      <c r="L36" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="M36" s="7" t="s">
+      <c r="M36" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="N36" s="7"/>
-      <c r="O36" s="23"/>
-      <c r="P36" s="23" t="s">
+      <c r="N36" s="39"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="Q36" s="24">
+      <c r="Q36" s="37">
         <v>6</v>
       </c>
-      <c r="R36" s="25" t="s">
+      <c r="R36" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="S36" s="24" t="s">
+      <c r="S36" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="T36" s="26" t="s">
+      <c r="T36" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="U36" s="24" t="s">
+      <c r="U36" s="37" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3380,117 +3380,117 @@
         <v>252</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
+    <row r="40" spans="1:21" s="40" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="D40" s="31" t="s">
+      <c r="D40" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="E40" s="20"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="21" t="s">
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="H40" s="11">
+      <c r="H40" s="36">
         <v>24</v>
       </c>
-      <c r="I40" s="4" t="s">
+      <c r="I40" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="J40" s="22" t="s">
+      <c r="J40" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="K40" s="6" t="s">
+      <c r="K40" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="L40" s="5" t="s">
+      <c r="L40" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7" t="s">
+      <c r="M40" s="39"/>
+      <c r="N40" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="O40" s="23"/>
-      <c r="P40" s="23" t="s">
+      <c r="O40" s="37"/>
+      <c r="P40" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="Q40" s="24">
+      <c r="Q40" s="37">
         <v>6</v>
       </c>
-      <c r="R40" s="25" t="s">
+      <c r="R40" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="S40" s="24" t="s">
+      <c r="S40" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="T40" s="26" t="s">
+      <c r="T40" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="U40" s="24" t="s">
+      <c r="U40" s="37" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
+    <row r="41" spans="1:21" s="40" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="D41" s="31" t="s">
+      <c r="D41" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="E41" s="20"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="21" t="s">
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="H41" s="11">
+      <c r="H41" s="36">
         <v>25</v>
       </c>
-      <c r="I41" s="4" t="s">
+      <c r="I41" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="J41" s="22" t="s">
+      <c r="J41" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="K41" s="6" t="s">
+      <c r="K41" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="L41" s="5" t="s">
+      <c r="L41" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="M41" s="7"/>
-      <c r="N41" s="7" t="s">
+      <c r="M41" s="39"/>
+      <c r="N41" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="O41" s="23"/>
-      <c r="P41" s="23" t="s">
+      <c r="O41" s="37"/>
+      <c r="P41" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="Q41" s="24">
+      <c r="Q41" s="37">
         <v>6</v>
       </c>
-      <c r="R41" s="25" t="s">
+      <c r="R41" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="S41" s="24" t="s">
+      <c r="S41" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="T41" s="26" t="s">
+      <c r="T41" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="U41" s="24" t="s">
+      <c r="U41" s="37" t="s">
         <v>160</v>
       </c>
     </row>
@@ -3551,60 +3551,60 @@
         <v>160</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
+    <row r="43" spans="1:21" s="40" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="D43" s="31" t="s">
+      <c r="D43" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="E43" s="20"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="21" t="s">
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37" t="s">
         <v>197</v>
       </c>
-      <c r="H43" s="11">
+      <c r="H43" s="36">
         <v>27</v>
       </c>
-      <c r="I43" s="4" t="s">
+      <c r="I43" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="J43" s="22" t="s">
+      <c r="J43" s="37" t="s">
         <v>198</v>
       </c>
-      <c r="K43" s="6" t="s">
+      <c r="K43" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="L43" s="5" t="s">
+      <c r="L43" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7" t="s">
+      <c r="M43" s="39"/>
+      <c r="N43" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="O43" s="23"/>
-      <c r="P43" s="23" t="s">
+      <c r="O43" s="37"/>
+      <c r="P43" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="Q43" s="24">
+      <c r="Q43" s="37">
         <v>6</v>
       </c>
-      <c r="R43" s="25" t="s">
+      <c r="R43" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="S43" s="24" t="s">
+      <c r="S43" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="T43" s="26" t="s">
+      <c r="T43" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="U43" s="24" t="s">
+      <c r="U43" s="37" t="s">
         <v>160</v>
       </c>
     </row>
@@ -5004,6 +5004,12 @@
     <row r="298" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5018,12 +5024,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado10/guion14/escaleta_CN_10_14_CO.xlsx
+++ b/fuentes/contenidos/grado10/guion14/escaleta_CN_10_14_CO.xlsx
@@ -19,14 +19,14 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$47</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="259">
   <si>
     <t>Asignatura</t>
   </si>
@@ -786,6 +786,24 @@
   </si>
   <si>
     <t>RF_01_02_CO</t>
+  </si>
+  <si>
+    <t>4º ESO</t>
+  </si>
+  <si>
+    <t>Las reacciones químicas</t>
+  </si>
+  <si>
+    <t>Practica los cálculos estequiométricos con gases</t>
+  </si>
+  <si>
+    <t>FQ_10_12</t>
+  </si>
+  <si>
+    <t>Realiza cálculos estequiométricos con gases</t>
+  </si>
+  <si>
+    <t>si</t>
   </si>
 </sst>
 </file>
@@ -846,7 +864,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -925,6 +943,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0066"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -981,7 +1011,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1063,16 +1093,34 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1114,30 +1162,39 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00FF00"/>
+      <color rgb="FFFF0066"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1451,11 +1508,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U298"/>
+  <dimension ref="A1:V299"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
+      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1484,94 +1541,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="53" t="s">
+      <c r="J1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="K1" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="L1" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="55" t="s">
+      <c r="M1" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="55"/>
-      <c r="O1" s="43" t="s">
+      <c r="N1" s="61"/>
+      <c r="O1" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="43" t="s">
+      <c r="P1" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="58" t="s">
+      <c r="Q1" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="62" t="s">
+      <c r="R1" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="58" t="s">
+      <c r="S1" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="60" t="s">
+      <c r="T1" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="58" t="s">
+      <c r="U1" s="43" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="48"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="50"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="56"/>
       <c r="M2" s="19" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="59"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="44"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -3021,274 +3078,301 @@
       <c r="T32" s="26"/>
       <c r="U32" s="24"/>
     </row>
-    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+    <row r="33" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="D33" s="31" t="s">
+      <c r="D33" s="69" t="s">
         <v>140</v>
       </c>
-      <c r="E33" s="20" t="s">
+      <c r="E33" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="F33" s="23"/>
-      <c r="G33" s="21" t="s">
+      <c r="F33" s="69"/>
+      <c r="G33" s="69" t="s">
+        <v>257</v>
+      </c>
+      <c r="H33" s="70">
+        <v>19</v>
+      </c>
+      <c r="I33" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" s="69" t="s">
+        <v>209</v>
+      </c>
+      <c r="K33" s="71" t="s">
+        <v>258</v>
+      </c>
+      <c r="L33" s="71" t="s">
+        <v>8</v>
+      </c>
+      <c r="M33" s="71"/>
+      <c r="N33" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="O33" s="69"/>
+      <c r="P33" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q33" s="72" t="s">
+        <v>253</v>
+      </c>
+      <c r="R33" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="S33" s="72" t="s">
+        <v>254</v>
+      </c>
+      <c r="T33" s="72" t="s">
+        <v>255</v>
+      </c>
+      <c r="U33" s="72" t="s">
+        <v>256</v>
+      </c>
+      <c r="V33"/>
+    </row>
+    <row r="34" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" s="64" t="s">
+        <v>123</v>
+      </c>
+      <c r="D34" s="65" t="s">
+        <v>140</v>
+      </c>
+      <c r="E34" s="65" t="s">
+        <v>143</v>
+      </c>
+      <c r="F34" s="65"/>
+      <c r="G34" s="65" t="s">
         <v>208</v>
       </c>
-      <c r="H33" s="17">
+      <c r="H34" s="66">
         <v>19</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="I34" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="J33" s="22" t="s">
+      <c r="J34" s="65" t="s">
         <v>209</v>
       </c>
-      <c r="K33" s="6" t="s">
+      <c r="K34" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="L33" s="5" t="s">
+      <c r="L34" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7" t="s">
+      <c r="M34" s="67"/>
+      <c r="N34" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="O33" s="23"/>
-      <c r="P33" s="23" t="s">
+      <c r="O34" s="65"/>
+      <c r="P34" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="Q33" s="24">
+      <c r="Q34" s="65">
         <v>6</v>
       </c>
-      <c r="R33" s="25" t="s">
+      <c r="R34" s="65" t="s">
         <v>157</v>
       </c>
-      <c r="S33" s="24" t="s">
+      <c r="S34" s="65" t="s">
         <v>158</v>
       </c>
-      <c r="T33" s="26" t="s">
+      <c r="T34" s="65" t="s">
         <v>210</v>
       </c>
-      <c r="U33" s="24" t="s">
+      <c r="U34" s="65" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="40" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="36" t="s">
+    <row r="35" spans="1:22" s="40" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="36" t="s">
+      <c r="B35" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="C34" s="36" t="s">
+      <c r="C35" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="D34" s="37" t="s">
+      <c r="D35" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="E34" s="37" t="s">
+      <c r="E35" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37" t="s">
+      <c r="F35" s="37"/>
+      <c r="G35" s="37" t="s">
         <v>211</v>
       </c>
-      <c r="H34" s="38">
+      <c r="H35" s="38">
         <v>20</v>
       </c>
-      <c r="I34" s="39" t="s">
+      <c r="I35" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="37" t="s">
+      <c r="J35" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="K34" s="39" t="s">
+      <c r="K35" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="L34" s="39" t="s">
+      <c r="L35" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="M34" s="39"/>
-      <c r="N34" s="39" t="s">
+      <c r="M35" s="39"/>
+      <c r="N35" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="O34" s="37"/>
-      <c r="P34" s="37" t="s">
+      <c r="O35" s="37"/>
+      <c r="P35" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="Q34" s="37">
+      <c r="Q35" s="37">
         <v>6</v>
       </c>
-      <c r="R34" s="37" t="s">
+      <c r="R35" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="S34" s="37" t="s">
+      <c r="S35" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="T34" s="37" t="s">
+      <c r="T35" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="U34" s="37" t="s">
+      <c r="U35" s="37" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+    <row r="36" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B36" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C36" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D35" s="31" t="s">
+      <c r="D36" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="E35" s="20" t="s">
+      <c r="E36" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="F35" s="23"/>
-      <c r="G35" s="21" t="s">
+      <c r="F36" s="23"/>
+      <c r="G36" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="H35" s="17">
+      <c r="H36" s="17">
         <v>21</v>
       </c>
-      <c r="I35" s="4" t="s">
+      <c r="I36" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="22" t="s">
+      <c r="J36" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="K35" s="6" t="s">
+      <c r="K36" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L35" s="5" t="s">
+      <c r="L36" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7" t="s">
+      <c r="M36" s="7"/>
+      <c r="N36" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="O35" s="23"/>
-      <c r="P35" s="23" t="s">
+      <c r="O36" s="23"/>
+      <c r="P36" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="Q35" s="24">
+      <c r="Q36" s="24">
         <v>6</v>
       </c>
-      <c r="R35" s="25" t="s">
+      <c r="R36" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="S35" s="24" t="s">
+      <c r="S36" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="T35" s="26" t="s">
+      <c r="T36" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="U35" s="24" t="s">
+      <c r="U36" s="24" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="36" spans="1:21" s="40" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="36" t="s">
+    <row r="37" spans="1:22" s="40" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="36" t="s">
+      <c r="B37" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="C36" s="36" t="s">
+      <c r="C37" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="D36" s="37" t="s">
+      <c r="D37" s="37" t="s">
         <v>223</v>
       </c>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37" t="s">
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37" t="s">
         <v>239</v>
       </c>
-      <c r="H36" s="38">
+      <c r="H37" s="38">
         <v>22</v>
       </c>
-      <c r="I36" s="39" t="s">
+      <c r="I37" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="J36" s="37" t="s">
+      <c r="J37" s="37" t="s">
         <v>222</v>
       </c>
-      <c r="K36" s="39" t="s">
+      <c r="K37" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="L36" s="39" t="s">
+      <c r="L37" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="M36" s="39" t="s">
+      <c r="M37" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="N36" s="39"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="37" t="s">
+      <c r="N37" s="39"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="Q36" s="37">
+      <c r="Q37" s="37">
         <v>6</v>
       </c>
-      <c r="R36" s="37" t="s">
+      <c r="R37" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="S36" s="37" t="s">
+      <c r="S37" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="T36" s="37" t="s">
+      <c r="T37" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="U36" s="37" t="s">
+      <c r="U37" s="37" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="D37" s="31" t="s">
-        <v>223</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="F37" s="23"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="23"/>
-      <c r="P37" s="23"/>
-      <c r="Q37" s="24"/>
-      <c r="R37" s="25"/>
-      <c r="S37" s="24"/>
-      <c r="T37" s="26"/>
-      <c r="U37" s="24"/>
-    </row>
-    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>17</v>
       </c>
@@ -3302,7 +3386,7 @@
         <v>223</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F38" s="23"/>
       <c r="G38" s="21"/>
@@ -3321,7 +3405,7 @@
       <c r="T38" s="26"/>
       <c r="U38" s="24"/>
     </row>
-    <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>17</v>
       </c>
@@ -3335,109 +3419,85 @@
         <v>223</v>
       </c>
       <c r="E39" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="F39" s="23"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="23"/>
+      <c r="Q39" s="24"/>
+      <c r="R39" s="25"/>
+      <c r="S39" s="24"/>
+      <c r="T39" s="26"/>
+      <c r="U39" s="24"/>
+    </row>
+    <row r="40" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D40" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="E40" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="F39" s="23"/>
-      <c r="G39" s="21" t="s">
+      <c r="F40" s="23"/>
+      <c r="G40" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="H39" s="17">
+      <c r="H40" s="17">
         <v>23</v>
       </c>
-      <c r="I39" s="4" t="s">
+      <c r="I40" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J39" s="22" t="s">
+      <c r="J40" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="K39" s="6" t="s">
+      <c r="K40" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L39" s="5" t="s">
+      <c r="L40" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7" t="s">
+      <c r="M40" s="7"/>
+      <c r="N40" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="O39" s="23"/>
-      <c r="P39" s="23" t="s">
+      <c r="O40" s="23"/>
+      <c r="P40" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="Q39" s="24">
+      <c r="Q40" s="24">
         <v>6</v>
       </c>
-      <c r="R39" s="25" t="s">
+      <c r="R40" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="S39" s="24" t="s">
+      <c r="S40" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="T39" s="26" t="s">
+      <c r="T40" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="U39" s="24" t="s">
+      <c r="U40" s="24" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="40" spans="1:21" s="40" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="B40" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="C40" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="D40" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="H40" s="36">
-        <v>24</v>
-      </c>
-      <c r="I40" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="J40" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="K40" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="L40" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="M40" s="39"/>
-      <c r="N40" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="O40" s="37"/>
-      <c r="P40" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q40" s="37">
-        <v>6</v>
-      </c>
-      <c r="R40" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="S40" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="T40" s="37" t="s">
-        <v>159</v>
-      </c>
-      <c r="U40" s="37" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" s="40" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" s="40" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="36" t="s">
         <v>17</v>
       </c>
@@ -3453,16 +3513,16 @@
       <c r="E41" s="37"/>
       <c r="F41" s="37"/>
       <c r="G41" s="37" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H41" s="36">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I41" s="39" t="s">
         <v>20</v>
       </c>
       <c r="J41" s="37" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K41" s="39" t="s">
         <v>20</v>
@@ -3488,172 +3548,184 @@
         <v>158</v>
       </c>
       <c r="T41" s="37" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
       <c r="U41" s="37" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
+    <row r="42" spans="1:22" s="40" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="D42" s="31" t="s">
+      <c r="D42" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="E42" s="20"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="21" t="s">
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="H42" s="36">
+        <v>25</v>
+      </c>
+      <c r="I42" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="J42" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="K42" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="M42" s="39"/>
+      <c r="N42" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="O42" s="37"/>
+      <c r="P42" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q42" s="37">
+        <v>6</v>
+      </c>
+      <c r="R42" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="S42" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="T42" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="U42" s="37" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D43" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="E43" s="20"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="H42" s="11">
+      <c r="H43" s="11">
         <v>26</v>
       </c>
-      <c r="I42" s="4" t="s">
+      <c r="I43" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J42" s="22" t="s">
+      <c r="J43" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="K42" s="6" t="s">
+      <c r="K43" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L42" s="5" t="s">
+      <c r="L43" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7" t="s">
+      <c r="M43" s="7"/>
+      <c r="N43" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="O42" s="23"/>
-      <c r="P42" s="23" t="s">
+      <c r="O43" s="23"/>
+      <c r="P43" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="Q42" s="24">
+      <c r="Q43" s="24">
         <v>6</v>
       </c>
-      <c r="R42" s="25" t="s">
+      <c r="R43" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="S42" s="24" t="s">
+      <c r="S43" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="T42" s="26" t="s">
+      <c r="T43" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="U42" s="24" t="s">
+      <c r="U43" s="24" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="43" spans="1:21" s="40" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="36" t="s">
+    <row r="44" spans="1:22" s="40" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="36" t="s">
+      <c r="B44" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="C43" s="36" t="s">
+      <c r="C44" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="D43" s="37" t="s">
+      <c r="D44" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37" t="s">
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37" t="s">
         <v>197</v>
       </c>
-      <c r="H43" s="36">
+      <c r="H44" s="36">
         <v>27</v>
       </c>
-      <c r="I43" s="39" t="s">
+      <c r="I44" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="J43" s="37" t="s">
+      <c r="J44" s="37" t="s">
         <v>198</v>
       </c>
-      <c r="K43" s="39" t="s">
+      <c r="K44" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="L43" s="39" t="s">
+      <c r="L44" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="M43" s="39"/>
-      <c r="N43" s="39" t="s">
+      <c r="M44" s="39"/>
+      <c r="N44" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="O43" s="37"/>
-      <c r="P43" s="37" t="s">
+      <c r="O44" s="37"/>
+      <c r="P44" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="Q43" s="37">
+      <c r="Q44" s="37">
         <v>6</v>
       </c>
-      <c r="R43" s="37" t="s">
+      <c r="R44" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="S43" s="37" t="s">
+      <c r="S44" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="T43" s="37" t="s">
+      <c r="T44" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="U43" s="37" t="s">
+      <c r="U44" s="37" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="D44" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="E44" s="20"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="H44" s="11">
-        <v>28</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J44" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="K44" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L44" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7"/>
-      <c r="O44" s="23"/>
-      <c r="P44" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q44" s="24"/>
-      <c r="R44" s="25"/>
-      <c r="S44" s="24"/>
-      <c r="T44" s="26"/>
-      <c r="U44" s="24"/>
-    </row>
-    <row r="45" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>17</v>
       </c>
@@ -3669,48 +3741,36 @@
       <c r="E45" s="20"/>
       <c r="F45" s="23"/>
       <c r="G45" s="21" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="H45" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>20</v>
       </c>
       <c r="J45" s="22" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K45" s="6" t="s">
         <v>20</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M45" s="7"/>
-      <c r="N45" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="N45" s="7"/>
       <c r="O45" s="23"/>
       <c r="P45" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="Q45" s="24">
-        <v>6</v>
-      </c>
-      <c r="R45" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="S45" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="T45" s="26" t="s">
-        <v>243</v>
-      </c>
-      <c r="U45" s="24" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q45" s="24"/>
+      <c r="R45" s="25"/>
+      <c r="S45" s="24"/>
+      <c r="T45" s="26"/>
+      <c r="U45" s="24"/>
+    </row>
+    <row r="46" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>17</v>
       </c>
@@ -3726,16 +3786,16 @@
       <c r="E46" s="20"/>
       <c r="F46" s="23"/>
       <c r="G46" s="21" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H46" s="11">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J46" s="33" t="s">
-        <v>166</v>
+      <c r="J46" s="22" t="s">
+        <v>167</v>
       </c>
       <c r="K46" s="6" t="s">
         <v>20</v>
@@ -3745,11 +3805,11 @@
       </c>
       <c r="M46" s="7"/>
       <c r="N46" s="7" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="O46" s="23"/>
       <c r="P46" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q46" s="24">
         <v>6</v>
@@ -3761,36 +3821,70 @@
         <v>158</v>
       </c>
       <c r="T46" s="26" t="s">
-        <v>164</v>
+        <v>243</v>
       </c>
       <c r="U46" s="24" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="31"/>
+    <row r="47" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D47" s="31" t="s">
+        <v>161</v>
+      </c>
       <c r="E47" s="20"/>
       <c r="F47" s="23"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="5"/>
+      <c r="G47" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="H47" s="11">
+        <v>30</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J47" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="M47" s="7"/>
-      <c r="N47" s="7"/>
+      <c r="N47" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="O47" s="23"/>
-      <c r="P47" s="23"/>
-      <c r="Q47" s="24"/>
-      <c r="R47" s="25"/>
-      <c r="S47" s="24"/>
-      <c r="T47" s="26"/>
-      <c r="U47" s="24"/>
-    </row>
-    <row r="48" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P47" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q47" s="24">
+        <v>6</v>
+      </c>
+      <c r="R47" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="S47" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="T47" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="U47" s="24" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="20"/>
       <c r="C48" s="34"/>
@@ -3821,7 +3915,7 @@
       <c r="E49" s="20"/>
       <c r="F49" s="23"/>
       <c r="G49" s="21"/>
-      <c r="H49" s="23"/>
+      <c r="H49" s="17"/>
       <c r="I49" s="4"/>
       <c r="J49" s="22"/>
       <c r="K49" s="6"/>
@@ -4641,7 +4735,29 @@
       <c r="T84" s="26"/>
       <c r="U84" s="24"/>
     </row>
-    <row r="86" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="3"/>
+      <c r="B85" s="20"/>
+      <c r="C85" s="34"/>
+      <c r="D85" s="31"/>
+      <c r="E85" s="20"/>
+      <c r="F85" s="23"/>
+      <c r="G85" s="21"/>
+      <c r="H85" s="23"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="22"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="5"/>
+      <c r="M85" s="7"/>
+      <c r="N85" s="7"/>
+      <c r="O85" s="23"/>
+      <c r="P85" s="23"/>
+      <c r="Q85" s="24"/>
+      <c r="R85" s="25"/>
+      <c r="S85" s="24"/>
+      <c r="T85" s="26"/>
+      <c r="U85" s="24"/>
+    </row>
     <row r="87" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="88" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="89" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
@@ -4654,192 +4770,192 @@
     <row r="96" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="18" t="s">
-        <v>92</v>
-      </c>
-    </row>
+    <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="18" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
     </row>
     <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="129" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="130" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="131" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="132" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="133" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="134" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="18" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
     </row>
     <row r="135" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="18" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="136" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="137" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="138" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="139" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
@@ -5002,14 +5118,9 @@
     <row r="296" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="297" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="298" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="299" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5024,6 +5135,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5034,37 +5151,37 @@
           <x14:formula1>
             <xm:f>DATOS!$E$14:$E$48</xm:f>
           </x14:formula1>
-          <xm:sqref>N48:N84 N45 N3:N39</xm:sqref>
+          <xm:sqref>N49:N85 N46 N3:N40</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>A48:A84 A3:A39</xm:sqref>
+          <xm:sqref>A49:A85 A3:A40</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$D$1:$D$2</xm:f>
           </x14:formula1>
-          <xm:sqref>P48:P84 I48:I84 K48:K84 P3:P43 I3:I46 K3:K43</xm:sqref>
+          <xm:sqref>P49:P85 I49:I85 K49:K85 K3:K44 I3:I47 P3:P44</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$B$1:$B$7</xm:f>
           </x14:formula1>
-          <xm:sqref>L48:L84 L3:L39</xm:sqref>
+          <xm:sqref>L49:L85 L3:L40</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$E$1:$E$13</xm:f>
           </x14:formula1>
-          <xm:sqref>M48:M84 M3:M39</xm:sqref>
+          <xm:sqref>M49:M85 M3:M40</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>[1]DATOS!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>A40:A47 P44:P47 K44:K47 I47 L40:M47 N40:N44 N46:N47</xm:sqref>
+          <xm:sqref>A41:A48 P45:P48 K45:K48 I48 L41:M48 N41:N45 N47:N48</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
